--- a/Acc_moviles_N.xlsx
+++ b/Acc_moviles_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D393D12-AB03-4E9B-82A5-E96815DD34D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A05F4C0-7152-4F79-BC7D-5058650FA51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_42.3" sheetId="1" r:id="rId1"/>
@@ -846,7 +846,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -869,18 +869,12 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -893,10 +887,10 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,10 +899,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -917,21 +911,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -949,6 +928,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -1030,25 +1017,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
@@ -1083,15 +1051,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="22" formatCode="mmm\-yy"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1101,6 +1081,13 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1156,7 +1143,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I80" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:I80" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B5:I80" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -1167,15 +1154,15 @@
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{AA5C773E-1B6A-4E06-8C68-85D2B616CBED}" name="Mes" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{AA5C773E-1B6A-4E06-8C68-85D2B616CBED}" name="Mes" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="5">
       <calculatedColumnFormula>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Prepago" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Pospago controlado" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{4AE8D212-11D1-4F4B-800F-8B1D6411D96E}" name="Pospago libre" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{21427218-D1E5-4B23-9E7C-7FEE5BE80A48}" name="No especificado" dataDxfId="2" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="10" xr3:uid="{7762BB56-52A5-4640-A58F-EFCB994D8330}" name="Líneas del servicio móvil (p/c 100 habitantes)" dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Prepago" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Pospago controlado" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4AE8D212-11D1-4F4B-800F-8B1D6411D96E}" name="Pospago libre" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{21427218-D1E5-4B23-9E7C-7FEE5BE80A48}" name="No especificado" dataDxfId="1" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="10" xr3:uid="{7762BB56-52A5-4640-A58F-EFCB994D8330}" name="Líneas del servicio móvil (p/c 100 habitantes)" dataDxfId="0" dataCellStyle="20% - Énfasis5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1435,125 +1422,125 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="2:9" ht="54">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="28">
+      <c r="B6" s="22">
         <v>2024</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="23">
         <v>3</v>
       </c>
       <c r="D6" s="8">
         <v>128814860</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="30">
+      <c r="B7" s="24">
         <v>2024</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="25">
         <v>2</v>
       </c>
       <c r="D7" s="10">
         <v>127589605</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>2024</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="15">
         <v>127430233</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="17">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="30">
+      <c r="B9" s="24">
         <v>2023</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="25">
         <v>12</v>
       </c>
       <c r="D9" s="10">
@@ -1572,15 +1559,15 @@
       <c r="H9" s="11">
         <v>17663011</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="28">
+      <c r="B10" s="22">
         <v>2023</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="23">
         <v>11</v>
       </c>
       <c r="D10" s="8">
@@ -1599,15 +1586,15 @@
       <c r="H10" s="9">
         <v>16102471</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="13">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="30">
+      <c r="B11" s="24">
         <v>2023</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="25">
         <v>10</v>
       </c>
       <c r="D11" s="10">
@@ -1626,15 +1613,15 @@
       <c r="H11" s="11">
         <v>14544171</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="14">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="28">
+      <c r="B12" s="22">
         <v>2023</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="23">
         <v>9</v>
       </c>
       <c r="D12" s="8">
@@ -1653,15 +1640,15 @@
       <c r="H12" s="9">
         <v>10883186</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="30">
+      <c r="B13" s="24">
         <v>2023</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="25">
         <v>8</v>
       </c>
       <c r="D13" s="10">
@@ -1680,15 +1667,15 @@
       <c r="H13" s="11">
         <v>10290645</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="14">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="28">
+      <c r="B14" s="22">
         <v>2023</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="23">
         <v>7</v>
       </c>
       <c r="D14" s="8">
@@ -1707,15 +1694,15 @@
       <c r="H14" s="9">
         <v>9732328</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="13">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="30">
+      <c r="B15" s="24">
         <v>2023</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="25">
         <v>6</v>
       </c>
       <c r="D15" s="10">
@@ -1734,15 +1721,15 @@
       <c r="H15" s="11">
         <v>11552831</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="14">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="28">
+      <c r="B16" s="22">
         <v>2023</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="23">
         <v>5</v>
       </c>
       <c r="D16" s="8">
@@ -1761,15 +1748,15 @@
       <c r="H16" s="9">
         <v>11041210</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="13">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="30">
+      <c r="B17" s="24">
         <v>2023</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="25">
         <v>4</v>
       </c>
       <c r="D17" s="10">
@@ -1788,15 +1775,15 @@
       <c r="H17" s="11">
         <v>10656662</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="14">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="28">
+      <c r="B18" s="22">
         <v>2023</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="23">
         <v>3</v>
       </c>
       <c r="D18" s="8">
@@ -1815,15 +1802,15 @@
       <c r="H18" s="9">
         <v>11267420</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="13">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="30">
+      <c r="B19" s="24">
         <v>2023</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="25">
         <v>2</v>
       </c>
       <c r="D19" s="10">
@@ -1842,42 +1829,42 @@
       <c r="H19" s="11">
         <v>10877476</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="14">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="32">
+      <c r="B20" s="26">
         <v>2023</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="27">
         <v>1</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
         <v>119395696</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>89880203</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <v>3850373</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="16">
         <v>15068219</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="16">
         <v>10596901</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="17">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:9" hidden="1">
-      <c r="B21" s="34">
+      <c r="B21" s="28">
         <v>2022</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="29">
         <v>12</v>
       </c>
       <c r="D21" s="6">
@@ -1896,15 +1883,15 @@
       <c r="H21" s="7">
         <v>10381099</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="12">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:9" hidden="1">
-      <c r="B22" s="28">
+      <c r="B22" s="22">
         <v>2022</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="23">
         <v>11</v>
       </c>
       <c r="D22" s="8">
@@ -1923,15 +1910,15 @@
       <c r="H22" s="9">
         <v>9933472</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="13">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="30">
+      <c r="B23" s="24">
         <v>2022</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="25">
         <v>10</v>
       </c>
       <c r="D23" s="10">
@@ -1950,15 +1937,15 @@
       <c r="H23" s="11">
         <v>9480700</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="14">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="28">
+      <c r="B24" s="22">
         <v>2022</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="23">
         <v>9</v>
       </c>
       <c r="D24" s="8">
@@ -1977,15 +1964,15 @@
       <c r="H24" s="9">
         <v>9036535</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="13">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="30">
+      <c r="B25" s="24">
         <v>2022</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="25">
         <v>8</v>
       </c>
       <c r="D25" s="10">
@@ -2004,15 +1991,15 @@
       <c r="H25" s="11">
         <v>8486600</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="14">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="28">
+      <c r="B26" s="22">
         <v>2022</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="23">
         <v>7</v>
       </c>
       <c r="D26" s="8">
@@ -2031,15 +2018,15 @@
       <c r="H26" s="9">
         <v>8072210</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="13">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="30">
+      <c r="B27" s="24">
         <v>2022</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="25">
         <v>6</v>
       </c>
       <c r="D27" s="10">
@@ -2058,15 +2045,15 @@
       <c r="H27" s="11">
         <v>5979179</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="14">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="28">
+      <c r="B28" s="22">
         <v>2022</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="23">
         <v>5</v>
       </c>
       <c r="D28" s="8">
@@ -2085,15 +2072,15 @@
       <c r="H28" s="9">
         <v>6059447</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="13">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="30">
+      <c r="B29" s="24">
         <v>2022</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="25">
         <v>4</v>
       </c>
       <c r="D29" s="10">
@@ -2112,15 +2099,15 @@
       <c r="H29" s="11">
         <v>5774479</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="14">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="28">
+      <c r="B30" s="22">
         <v>2022</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="23">
         <v>3</v>
       </c>
       <c r="D30" s="8">
@@ -2139,15 +2126,15 @@
       <c r="H30" s="9">
         <v>5905364</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="13">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="30">
+      <c r="B31" s="24">
         <v>2022</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="25">
         <v>2</v>
       </c>
       <c r="D31" s="10">
@@ -2166,42 +2153,42 @@
       <c r="H31" s="11">
         <v>5996720</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="14">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="32">
+      <c r="B32" s="26">
         <v>2022</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="27">
         <v>1</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
         <v>112226788</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <v>87843404</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <v>3624160</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <v>15117757</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="16">
         <v>5641467</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="17">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:9" hidden="1">
-      <c r="B33" s="34">
+      <c r="B33" s="28">
         <v>2021</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="29">
         <v>12</v>
       </c>
       <c r="D33" s="6">
@@ -2220,15 +2207,15 @@
       <c r="H33" s="7">
         <v>3067492</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="12">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:9" hidden="1">
-      <c r="B34" s="28">
+      <c r="B34" s="22">
         <v>2021</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="23">
         <v>11</v>
       </c>
       <c r="D34" s="8">
@@ -2247,15 +2234,15 @@
       <c r="H34" s="9">
         <v>2997487</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="13">
         <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:9" hidden="1">
-      <c r="B35" s="30">
+      <c r="B35" s="24">
         <v>2021</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="25">
         <v>10</v>
       </c>
       <c r="D35" s="10">
@@ -2274,15 +2261,15 @@
       <c r="H35" s="11">
         <v>2926435</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="14">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:9" hidden="1">
-      <c r="B36" s="28">
+      <c r="B36" s="22">
         <v>2021</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="23">
         <v>9</v>
       </c>
       <c r="D36" s="8">
@@ -2301,15 +2288,15 @@
       <c r="H36" s="9">
         <v>3221066</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="13">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="2:9" hidden="1">
-      <c r="B37" s="30">
+      <c r="B37" s="24">
         <v>2021</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="25">
         <v>8</v>
       </c>
       <c r="D37" s="10">
@@ -2328,15 +2315,15 @@
       <c r="H37" s="11">
         <v>3128426</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="14">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:9" hidden="1">
-      <c r="B38" s="28">
+      <c r="B38" s="22">
         <v>2021</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="23">
         <v>7</v>
       </c>
       <c r="D38" s="8">
@@ -2355,15 +2342,15 @@
       <c r="H38" s="9">
         <v>3018896</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="13">
         <v>81</v>
       </c>
     </row>
     <row r="39" spans="2:9" hidden="1">
-      <c r="B39" s="30">
+      <c r="B39" s="24">
         <v>2021</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="25">
         <v>6</v>
       </c>
       <c r="D39" s="10">
@@ -2382,15 +2369,15 @@
       <c r="H39" s="11">
         <v>2577560</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="14">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="2:9" hidden="1">
-      <c r="B40" s="28">
+      <c r="B40" s="22">
         <v>2021</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="23">
         <v>5</v>
       </c>
       <c r="D40" s="8">
@@ -2409,15 +2396,15 @@
       <c r="H40" s="9">
         <v>2485110</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="13">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:9" hidden="1">
-      <c r="B41" s="30">
+      <c r="B41" s="24">
         <v>2021</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="25">
         <v>4</v>
       </c>
       <c r="D41" s="10">
@@ -2436,15 +2423,15 @@
       <c r="H41" s="11">
         <v>2412580</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="14">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="2:9" hidden="1">
-      <c r="B42" s="28">
+      <c r="B42" s="22">
         <v>2021</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="23">
         <v>3</v>
       </c>
       <c r="D42" s="8">
@@ -2463,15 +2450,15 @@
       <c r="H42" s="9">
         <v>2624526</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="13">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="2:9" hidden="1">
-      <c r="B43" s="30">
+      <c r="B43" s="24">
         <v>2021</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="25">
         <v>2</v>
       </c>
       <c r="D43" s="10">
@@ -2490,42 +2477,42 @@
       <c r="H43" s="11">
         <v>2551667</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="14">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:9" hidden="1">
-      <c r="B44" s="32">
+      <c r="B44" s="26">
         <v>2021</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="27">
         <v>1</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
         <v>101540872</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="16">
         <v>81386758</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="16">
         <v>3154685</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="16">
         <v>14516104</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="16">
         <v>2483325</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="17">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:9" hidden="1">
-      <c r="B45" s="34">
+      <c r="B45" s="28">
         <v>2020</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="29">
         <v>12</v>
       </c>
       <c r="D45" s="6">
@@ -2544,15 +2531,15 @@
       <c r="H45" s="7">
         <v>29240</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="12">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="2:9" hidden="1">
-      <c r="B46" s="28">
+      <c r="B46" s="22">
         <v>2020</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="23">
         <v>11</v>
       </c>
       <c r="D46" s="8">
@@ -2571,15 +2558,15 @@
       <c r="H46" s="9">
         <v>22336</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="13">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:9" hidden="1">
-      <c r="B47" s="30">
+      <c r="B47" s="24">
         <v>2020</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="25">
         <v>10</v>
       </c>
       <c r="D47" s="10">
@@ -2598,15 +2585,15 @@
       <c r="H47" s="11">
         <v>20799</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="14">
         <v>79</v>
       </c>
     </row>
     <row r="48" spans="2:9" hidden="1">
-      <c r="B48" s="28">
+      <c r="B48" s="22">
         <v>2020</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="23">
         <v>9</v>
       </c>
       <c r="D48" s="8">
@@ -2625,15 +2612,15 @@
       <c r="H48" s="9">
         <v>68999</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="13">
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:9" hidden="1">
-      <c r="B49" s="30">
+      <c r="B49" s="24">
         <v>2020</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="25">
         <v>8</v>
       </c>
       <c r="D49" s="10">
@@ -2652,15 +2639,15 @@
       <c r="H49" s="11">
         <v>68781</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="14">
         <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:9" hidden="1">
-      <c r="B50" s="28">
+      <c r="B50" s="22">
         <v>2020</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="23">
         <v>7</v>
       </c>
       <c r="D50" s="8">
@@ -2679,15 +2666,15 @@
       <c r="H50" s="9">
         <v>66820</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="13">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="2:9" hidden="1">
-      <c r="B51" s="30">
+      <c r="B51" s="24">
         <v>2020</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="25">
         <v>6</v>
       </c>
       <c r="D51" s="10">
@@ -2706,15 +2693,15 @@
       <c r="H51" s="11">
         <v>19843</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="14">
         <v>76</v>
       </c>
     </row>
     <row r="52" spans="2:9" hidden="1">
-      <c r="B52" s="28">
+      <c r="B52" s="22">
         <v>2020</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="23">
         <v>5</v>
       </c>
       <c r="D52" s="8">
@@ -2733,15 +2720,15 @@
       <c r="H52" s="9">
         <v>20046</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="13">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="2:9" hidden="1">
-      <c r="B53" s="30">
+      <c r="B53" s="24">
         <v>2020</v>
       </c>
-      <c r="C53" s="31">
+      <c r="C53" s="25">
         <v>4</v>
       </c>
       <c r="D53" s="10">
@@ -2760,15 +2747,15 @@
       <c r="H53" s="11">
         <v>19675</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="14">
         <v>76</v>
       </c>
     </row>
     <row r="54" spans="2:9" hidden="1">
-      <c r="B54" s="28">
+      <c r="B54" s="22">
         <v>2020</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="23">
         <v>3</v>
       </c>
       <c r="D54" s="8">
@@ -2787,15 +2774,15 @@
       <c r="H54" s="9">
         <v>87935</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="13">
         <v>77</v>
       </c>
     </row>
     <row r="55" spans="2:9" hidden="1">
-      <c r="B55" s="30">
+      <c r="B55" s="24">
         <v>2020</v>
       </c>
-      <c r="C55" s="31">
+      <c r="C55" s="25">
         <v>2</v>
       </c>
       <c r="D55" s="10">
@@ -2814,680 +2801,680 @@
       <c r="H55" s="11">
         <v>85681</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I55" s="14">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="2:9" hidden="1">
-      <c r="B56" s="28">
+      <c r="B56" s="26">
         <v>2020</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="27">
         <v>1</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
         <v>97243473</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="16">
         <v>78657100</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="16">
         <v>3275734</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="16">
         <v>15227956</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="16">
         <v>82683</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="17">
         <v>77</v>
       </c>
     </row>
     <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="36">
+      <c r="B57" s="25">
         <v>2019</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="25">
         <v>12</v>
       </c>
-      <c r="D57" s="12">
-        <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>97243473</v>
-      </c>
-      <c r="E57" s="13">
-        <v>78657100</v>
-      </c>
-      <c r="F57" s="13">
-        <v>3275734</v>
-      </c>
-      <c r="G57" s="13">
-        <v>15227956</v>
-      </c>
-      <c r="H57" s="13">
-        <v>82683</v>
-      </c>
-      <c r="I57" s="20">
+      <c r="D57" s="10">
+        <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>97456659</v>
+      </c>
+      <c r="E57" s="11">
+        <v>78906429</v>
+      </c>
+      <c r="F57" s="11">
+        <v>3528042</v>
+      </c>
+      <c r="G57" s="11">
+        <v>14980503</v>
+      </c>
+      <c r="H57" s="11">
+        <v>41685</v>
+      </c>
+      <c r="I57" s="11">
         <v>77</v>
       </c>
     </row>
     <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="38">
+      <c r="B58" s="22">
         <v>2019</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="36">
         <v>11</v>
       </c>
-      <c r="D58" s="21">
-        <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>97456659</v>
-      </c>
-      <c r="E58" s="22">
-        <v>78906429</v>
-      </c>
-      <c r="F58" s="22">
-        <v>3528042</v>
-      </c>
-      <c r="G58" s="22">
-        <v>14980503</v>
-      </c>
-      <c r="H58" s="22">
-        <v>41685</v>
-      </c>
-      <c r="I58" s="23">
+      <c r="D58" s="37">
+        <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>95191229</v>
+      </c>
+      <c r="E58" s="38">
+        <v>76247207</v>
+      </c>
+      <c r="F58" s="38">
+        <v>3567519</v>
+      </c>
+      <c r="G58" s="38">
+        <v>15335695</v>
+      </c>
+      <c r="H58" s="38">
+        <v>40808</v>
+      </c>
+      <c r="I58" s="13">
         <v>78</v>
       </c>
     </row>
     <row r="59" spans="2:9" hidden="1">
-      <c r="B59" s="30">
+      <c r="B59" s="24">
         <v>2019</v>
       </c>
-      <c r="C59" s="31">
+      <c r="C59" s="25">
         <v>10</v>
       </c>
       <c r="D59" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>95191229</v>
+        <v>94134281</v>
       </c>
       <c r="E59" s="11">
-        <v>76247207</v>
+        <v>75239275</v>
       </c>
       <c r="F59" s="11">
-        <v>3567519</v>
+        <v>3577221</v>
       </c>
       <c r="G59" s="11">
-        <v>15335695</v>
+        <v>15279600</v>
       </c>
       <c r="H59" s="11">
-        <v>40808</v>
-      </c>
-      <c r="I59" s="16">
+        <v>38185</v>
+      </c>
+      <c r="I59" s="14">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:9" hidden="1">
-      <c r="B60" s="28">
+      <c r="B60" s="22">
         <v>2019</v>
       </c>
-      <c r="C60" s="29">
+      <c r="C60" s="23">
         <v>9</v>
       </c>
       <c r="D60" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>94134281</v>
+        <v>93199826</v>
       </c>
       <c r="E60" s="9">
-        <v>75239275</v>
+        <v>74529423</v>
       </c>
       <c r="F60" s="9">
-        <v>3577221</v>
+        <v>3553806</v>
       </c>
       <c r="G60" s="9">
-        <v>15279600</v>
+        <v>15095770</v>
       </c>
       <c r="H60" s="9">
-        <v>38185</v>
-      </c>
-      <c r="I60" s="15">
+        <v>20827</v>
+      </c>
+      <c r="I60" s="13">
         <v>75</v>
       </c>
     </row>
     <row r="61" spans="2:9" hidden="1">
-      <c r="B61" s="30">
+      <c r="B61" s="24">
         <v>2019</v>
       </c>
-      <c r="C61" s="31">
+      <c r="C61" s="25">
         <v>8</v>
       </c>
       <c r="D61" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>93199826</v>
+        <v>93596160</v>
       </c>
       <c r="E61" s="11">
-        <v>74529423</v>
+        <v>73257451</v>
       </c>
       <c r="F61" s="11">
-        <v>3553806</v>
+        <v>3763991</v>
       </c>
       <c r="G61" s="11">
-        <v>15095770</v>
+        <v>16553658</v>
       </c>
       <c r="H61" s="11">
-        <v>20827</v>
-      </c>
-      <c r="I61" s="16">
+        <v>21060</v>
+      </c>
+      <c r="I61" s="14">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="2:9" hidden="1">
-      <c r="B62" s="28">
+      <c r="B62" s="22">
         <v>2019</v>
       </c>
-      <c r="C62" s="29">
+      <c r="C62" s="23">
         <v>7</v>
       </c>
       <c r="D62" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>93596160</v>
+        <v>93025322</v>
       </c>
       <c r="E62" s="9">
-        <v>73257451</v>
+        <v>72053887</v>
       </c>
       <c r="F62" s="9">
-        <v>3763991</v>
+        <v>3775429</v>
       </c>
       <c r="G62" s="9">
-        <v>16553658</v>
+        <v>17174783</v>
       </c>
       <c r="H62" s="9">
-        <v>21060</v>
-      </c>
-      <c r="I62" s="15">
+        <v>21223</v>
+      </c>
+      <c r="I62" s="13">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="2:9" hidden="1">
-      <c r="B63" s="30">
+      <c r="B63" s="24">
         <v>2019</v>
       </c>
-      <c r="C63" s="31">
+      <c r="C63" s="25">
         <v>6</v>
       </c>
       <c r="D63" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>93025322</v>
+        <v>92262838</v>
       </c>
       <c r="E63" s="11">
-        <v>72053887</v>
+        <v>70677835</v>
       </c>
       <c r="F63" s="11">
-        <v>3775429</v>
+        <v>3886296</v>
       </c>
       <c r="G63" s="11">
-        <v>17174783</v>
+        <v>17676465</v>
       </c>
       <c r="H63" s="11">
-        <v>21223</v>
-      </c>
-      <c r="I63" s="16">
+        <v>22242</v>
+      </c>
+      <c r="I63" s="14">
         <v>74</v>
       </c>
     </row>
     <row r="64" spans="2:9" hidden="1">
-      <c r="B64" s="28">
+      <c r="B64" s="22">
         <v>2019</v>
       </c>
-      <c r="C64" s="29">
+      <c r="C64" s="23">
         <v>5</v>
       </c>
       <c r="D64" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>92262838</v>
+        <v>91244607</v>
       </c>
       <c r="E64" s="9">
-        <v>70677835</v>
+        <v>69932028</v>
       </c>
       <c r="F64" s="9">
-        <v>3886296</v>
+        <v>3802955</v>
       </c>
       <c r="G64" s="9">
-        <v>17676465</v>
+        <v>17487102</v>
       </c>
       <c r="H64" s="9">
-        <v>22242</v>
-      </c>
-      <c r="I64" s="15">
+        <v>22522</v>
+      </c>
+      <c r="I64" s="13">
         <v>74</v>
       </c>
     </row>
     <row r="65" spans="2:9" hidden="1">
-      <c r="B65" s="30">
+      <c r="B65" s="24">
         <v>2019</v>
       </c>
-      <c r="C65" s="31">
+      <c r="C65" s="25">
         <v>4</v>
       </c>
       <c r="D65" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>91244607</v>
+        <v>90004604</v>
       </c>
       <c r="E65" s="11">
-        <v>69932028</v>
+        <v>68846135</v>
       </c>
       <c r="F65" s="11">
-        <v>3802955</v>
+        <v>3715719</v>
       </c>
       <c r="G65" s="11">
-        <v>17487102</v>
+        <v>17421515</v>
       </c>
       <c r="H65" s="11">
-        <v>22522</v>
-      </c>
-      <c r="I65" s="16">
+        <v>21235</v>
+      </c>
+      <c r="I65" s="14">
         <v>73</v>
       </c>
     </row>
     <row r="66" spans="2:9" hidden="1">
-      <c r="B66" s="28">
+      <c r="B66" s="22">
         <v>2019</v>
       </c>
-      <c r="C66" s="29">
+      <c r="C66" s="23">
         <v>3</v>
       </c>
       <c r="D66" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>90004604</v>
+        <v>87975689</v>
       </c>
       <c r="E66" s="9">
-        <v>68846135</v>
+        <v>67313182</v>
       </c>
       <c r="F66" s="9">
-        <v>3715719</v>
+        <v>3767123</v>
       </c>
       <c r="G66" s="9">
-        <v>17421515</v>
+        <v>16873367</v>
       </c>
       <c r="H66" s="9">
-        <v>21235</v>
-      </c>
-      <c r="I66" s="15">
+        <v>22017</v>
+      </c>
+      <c r="I66" s="13">
         <v>72</v>
       </c>
     </row>
     <row r="67" spans="2:9" hidden="1">
-      <c r="B67" s="30">
+      <c r="B67" s="24">
         <v>2019</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="25">
         <v>2</v>
       </c>
       <c r="D67" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>87975689</v>
+        <v>87447344</v>
       </c>
       <c r="E67" s="11">
-        <v>67313182</v>
+        <v>66941620</v>
       </c>
       <c r="F67" s="11">
-        <v>3767123</v>
+        <v>3640526</v>
       </c>
       <c r="G67" s="11">
-        <v>16873367</v>
+        <v>16843155</v>
       </c>
       <c r="H67" s="11">
-        <v>22017</v>
-      </c>
-      <c r="I67" s="16">
+        <v>22043</v>
+      </c>
+      <c r="I67" s="14">
         <v>71</v>
       </c>
     </row>
     <row r="68" spans="2:9" hidden="1">
-      <c r="B68" s="28">
+      <c r="B68" s="26">
         <v>2019</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="27">
         <v>1</v>
       </c>
-      <c r="D68" s="8">
-        <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>87447344</v>
-      </c>
-      <c r="E68" s="9">
-        <v>66941620</v>
-      </c>
-      <c r="F68" s="9">
-        <v>3640526</v>
-      </c>
-      <c r="G68" s="9">
-        <v>16843155</v>
-      </c>
-      <c r="H68" s="9">
-        <v>22043</v>
-      </c>
-      <c r="I68" s="15">
+      <c r="D68" s="15">
+        <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>89529601</v>
+      </c>
+      <c r="E68" s="16">
+        <v>68416023</v>
+      </c>
+      <c r="F68" s="16">
+        <v>3730957</v>
+      </c>
+      <c r="G68" s="16">
+        <v>17360182</v>
+      </c>
+      <c r="H68" s="16">
+        <v>22439</v>
+      </c>
+      <c r="I68" s="17">
         <v>70</v>
       </c>
     </row>
     <row r="69" spans="2:9" hidden="1">
-      <c r="B69" s="30">
+      <c r="B69" s="24">
         <v>2018</v>
       </c>
-      <c r="C69" s="31">
+      <c r="C69" s="25">
         <v>12</v>
       </c>
       <c r="D69" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>89529601</v>
+        <v>88290836</v>
       </c>
       <c r="E69" s="11">
-        <v>68416023</v>
+        <v>67787906</v>
       </c>
       <c r="F69" s="11">
-        <v>3730957</v>
+        <v>3538227</v>
       </c>
       <c r="G69" s="11">
-        <v>17360182</v>
+        <v>16941395</v>
       </c>
       <c r="H69" s="11">
-        <v>22439</v>
-      </c>
-      <c r="I69" s="16">
+        <v>23308</v>
+      </c>
+      <c r="I69" s="14">
         <v>72</v>
       </c>
     </row>
     <row r="70" spans="2:9" hidden="1">
-      <c r="B70" s="32">
+      <c r="B70" s="36">
         <v>2018</v>
       </c>
-      <c r="C70" s="33">
+      <c r="C70" s="36">
         <v>11</v>
       </c>
-      <c r="D70" s="17">
-        <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>89529601</v>
-      </c>
-      <c r="E70" s="18">
-        <v>68416023</v>
-      </c>
-      <c r="F70" s="18">
-        <v>3730957</v>
-      </c>
-      <c r="G70" s="18">
-        <v>17360182</v>
-      </c>
-      <c r="H70" s="18">
-        <v>22439</v>
-      </c>
-      <c r="I70" s="19">
+      <c r="D70" s="37">
+        <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
+        <v>85477955</v>
+      </c>
+      <c r="E70" s="38">
+        <v>65494259</v>
+      </c>
+      <c r="F70" s="38">
+        <v>3449870</v>
+      </c>
+      <c r="G70" s="38">
+        <v>16510690</v>
+      </c>
+      <c r="H70" s="38">
+        <v>23136</v>
+      </c>
+      <c r="I70" s="38">
         <v>72</v>
       </c>
     </row>
     <row r="71" spans="2:9" hidden="1">
-      <c r="B71" s="31">
+      <c r="B71" s="25">
         <v>2018</v>
       </c>
-      <c r="C71" s="31">
+      <c r="C71" s="25">
         <v>10</v>
       </c>
       <c r="D71" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>88290836</v>
+        <v>84560937</v>
       </c>
       <c r="E71" s="11">
-        <v>67787906</v>
+        <v>64666452</v>
       </c>
       <c r="F71" s="11">
-        <v>3538227</v>
+        <v>3417662</v>
       </c>
       <c r="G71" s="11">
-        <v>16941395</v>
+        <v>16453468</v>
       </c>
       <c r="H71" s="11">
-        <v>23308</v>
+        <v>23355</v>
       </c>
       <c r="I71" s="11">
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="2:9" hidden="1">
-      <c r="B72" s="40">
+      <c r="B72" s="23">
         <v>2018</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="23">
         <v>9</v>
       </c>
       <c r="D72" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>85477955</v>
+        <v>83423891</v>
       </c>
       <c r="E72" s="9">
-        <v>65494259</v>
+        <v>63848339</v>
       </c>
       <c r="F72" s="9">
-        <v>3449870</v>
+        <v>3279371</v>
       </c>
       <c r="G72" s="9">
-        <v>16510690</v>
+        <v>16262840</v>
       </c>
       <c r="H72" s="9">
-        <v>23136</v>
+        <v>33341</v>
       </c>
       <c r="I72" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="2:9" hidden="1">
-      <c r="B73" s="31">
+      <c r="B73" s="25">
         <v>2018</v>
       </c>
-      <c r="C73" s="31">
+      <c r="C73" s="25">
         <v>8</v>
       </c>
       <c r="D73" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>84560937</v>
+        <v>84185964</v>
       </c>
       <c r="E73" s="11">
-        <v>64666452</v>
+        <v>64323758</v>
       </c>
       <c r="F73" s="11">
-        <v>3417662</v>
+        <v>3388415</v>
       </c>
       <c r="G73" s="11">
-        <v>16453468</v>
+        <v>16442187</v>
       </c>
       <c r="H73" s="11">
-        <v>23355</v>
+        <v>31604</v>
       </c>
       <c r="I73" s="11">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="2:9" hidden="1">
-      <c r="B74" s="40">
+      <c r="B74" s="23">
         <v>2018</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="23">
         <v>7</v>
       </c>
       <c r="D74" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>83423891</v>
+        <v>83573262</v>
       </c>
       <c r="E74" s="9">
-        <v>63848339</v>
+        <v>63939846</v>
       </c>
       <c r="F74" s="9">
-        <v>3279371</v>
+        <v>3293879</v>
       </c>
       <c r="G74" s="9">
-        <v>16262840</v>
+        <v>16309297</v>
       </c>
       <c r="H74" s="9">
-        <v>33341</v>
+        <v>30240</v>
       </c>
       <c r="I74" s="9">
         <v>67</v>
       </c>
     </row>
     <row r="75" spans="2:9" hidden="1">
-      <c r="B75" s="31">
+      <c r="B75" s="25">
         <v>2018</v>
       </c>
-      <c r="C75" s="31">
+      <c r="C75" s="25">
         <v>6</v>
       </c>
       <c r="D75" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>84185964</v>
+        <v>82690791</v>
       </c>
       <c r="E75" s="11">
-        <v>64323758</v>
+        <v>63042686</v>
       </c>
       <c r="F75" s="11">
-        <v>3388415</v>
+        <v>3471379</v>
       </c>
       <c r="G75" s="11">
-        <v>16442187</v>
+        <v>16152988</v>
       </c>
       <c r="H75" s="11">
-        <v>31604</v>
+        <v>23738</v>
       </c>
       <c r="I75" s="11">
         <v>68</v>
       </c>
     </row>
     <row r="76" spans="2:9" hidden="1">
-      <c r="B76" s="40">
+      <c r="B76" s="23">
         <v>2018</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="23">
         <v>5</v>
       </c>
       <c r="D76" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>83573262</v>
+        <v>83346358</v>
       </c>
       <c r="E76" s="9">
-        <v>63939846</v>
+        <v>63364544</v>
       </c>
       <c r="F76" s="9">
-        <v>3293879</v>
+        <v>3679854</v>
       </c>
       <c r="G76" s="9">
-        <v>16309297</v>
+        <v>16277303</v>
       </c>
       <c r="H76" s="9">
-        <v>30240</v>
+        <v>24657</v>
       </c>
       <c r="I76" s="9">
         <v>67</v>
       </c>
     </row>
     <row r="77" spans="2:9" hidden="1">
-      <c r="B77" s="31">
+      <c r="B77" s="25">
         <v>2018</v>
       </c>
-      <c r="C77" s="31">
+      <c r="C77" s="25">
         <v>4</v>
       </c>
       <c r="D77" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>82690791</v>
+        <v>83360228</v>
       </c>
       <c r="E77" s="11">
-        <v>63042686</v>
+        <v>63066231</v>
       </c>
       <c r="F77" s="11">
-        <v>3471379</v>
+        <v>3939676</v>
       </c>
       <c r="G77" s="11">
-        <v>16152988</v>
+        <v>16331321</v>
       </c>
       <c r="H77" s="11">
-        <v>23738</v>
+        <v>23000</v>
       </c>
       <c r="I77" s="11">
         <v>67</v>
       </c>
     </row>
     <row r="78" spans="2:9" hidden="1">
-      <c r="B78" s="40">
+      <c r="B78" s="23">
         <v>2018</v>
       </c>
-      <c r="C78" s="40">
+      <c r="C78" s="23">
         <v>3</v>
       </c>
       <c r="D78" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>83346358</v>
+        <v>82745443</v>
       </c>
       <c r="E78" s="9">
-        <v>63364544</v>
+        <v>62486103</v>
       </c>
       <c r="F78" s="9">
-        <v>3679854</v>
+        <v>3912338</v>
       </c>
       <c r="G78" s="9">
-        <v>16277303</v>
+        <v>16319082</v>
       </c>
       <c r="H78" s="9">
-        <v>24657</v>
+        <v>27920</v>
       </c>
       <c r="I78" s="9">
         <v>67</v>
       </c>
     </row>
     <row r="79" spans="2:9" hidden="1">
-      <c r="B79" s="31">
+      <c r="B79" s="25">
         <v>2018</v>
       </c>
-      <c r="C79" s="31">
+      <c r="C79" s="25">
         <v>2</v>
       </c>
       <c r="D79" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>83360228</v>
+        <v>81968936</v>
       </c>
       <c r="E79" s="11">
-        <v>63066231</v>
+        <v>61678147</v>
       </c>
       <c r="F79" s="11">
-        <v>3939676</v>
+        <v>4001846</v>
       </c>
       <c r="G79" s="11">
-        <v>16331321</v>
+        <v>16264930</v>
       </c>
       <c r="H79" s="11">
-        <v>23000</v>
+        <v>24013</v>
       </c>
       <c r="I79" s="11">
         <v>67</v>
       </c>
     </row>
     <row r="80" spans="2:9" hidden="1">
-      <c r="B80" s="40">
+      <c r="B80" s="23">
         <v>2018</v>
       </c>
-      <c r="C80" s="40">
+      <c r="C80" s="23">
         <v>1</v>
       </c>
       <c r="D80" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
-        <v>82745443</v>
+        <v>82644288</v>
       </c>
       <c r="E80" s="9">
-        <v>62486103</v>
+        <v>61947097</v>
       </c>
       <c r="F80" s="9">
-        <v>3912338</v>
+        <v>4219926</v>
       </c>
       <c r="G80" s="9">
-        <v>16319082</v>
+        <v>16455430</v>
       </c>
       <c r="H80" s="9">
-        <v>27920</v>
+        <v>21835</v>
       </c>
       <c r="I80" s="9">
         <v>67</v>

--- a/Acc_moviles_N.xlsx
+++ b/Acc_moviles_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A05F4C0-7152-4F79-BC7D-5058650FA51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F942F6-3EED-4449-8A9C-92EE1239138E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_42.3" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -81,6 +81,42 @@
   </si>
   <si>
     <t>ND No disponible.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
   </si>
 </sst>
 </file>
@@ -846,7 +882,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -881,9 +917,6 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -917,8 +950,8 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -929,13 +962,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -1422,21 +1453,21 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="2:9" ht="54">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="19" t="s">
@@ -1459,25 +1490,25 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>2024</v>
       </c>
-      <c r="C6" s="23">
-        <v>3</v>
+      <c r="C6" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="8">
         <v>128814860</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="13">
@@ -1485,25 +1516,25 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>2024</v>
       </c>
-      <c r="C7" s="25">
-        <v>2</v>
+      <c r="C7" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="10">
         <v>127589605</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="14">
@@ -1511,25 +1542,25 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>2024</v>
       </c>
-      <c r="C8" s="27">
-        <v>1</v>
+      <c r="C8" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="15">
         <v>127430233</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="31" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="17">
@@ -1537,11 +1568,11 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>2023</v>
       </c>
-      <c r="C9" s="25">
-        <v>12</v>
+      <c r="C9" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1564,11 +1595,11 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>2023</v>
       </c>
-      <c r="C10" s="23">
-        <v>11</v>
+      <c r="C10" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1591,11 +1622,11 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>2023</v>
       </c>
-      <c r="C11" s="25">
-        <v>10</v>
+      <c r="C11" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1618,11 +1649,11 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>2023</v>
       </c>
-      <c r="C12" s="23">
-        <v>9</v>
+      <c r="C12" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1645,11 +1676,11 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>2023</v>
       </c>
-      <c r="C13" s="25">
-        <v>8</v>
+      <c r="C13" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1672,11 +1703,11 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>2023</v>
       </c>
-      <c r="C14" s="23">
-        <v>7</v>
+      <c r="C14" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1699,11 +1730,11 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>2023</v>
       </c>
-      <c r="C15" s="25">
-        <v>6</v>
+      <c r="C15" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1726,11 +1757,11 @@
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>2023</v>
       </c>
-      <c r="C16" s="23">
-        <v>5</v>
+      <c r="C16" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1753,11 +1784,11 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>2023</v>
       </c>
-      <c r="C17" s="25">
-        <v>4</v>
+      <c r="C17" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1780,11 +1811,11 @@
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>2023</v>
       </c>
-      <c r="C18" s="23">
-        <v>3</v>
+      <c r="C18" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="D18" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1807,11 +1838,11 @@
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>2023</v>
       </c>
-      <c r="C19" s="25">
-        <v>2</v>
+      <c r="C19" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D19" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1834,11 +1865,11 @@
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>2023</v>
       </c>
-      <c r="C20" s="27">
-        <v>1</v>
+      <c r="C20" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D20" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1861,11 +1892,11 @@
       </c>
     </row>
     <row r="21" spans="2:9" hidden="1">
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>2022</v>
       </c>
-      <c r="C21" s="29">
-        <v>12</v>
+      <c r="C21" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D21" s="6">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1888,11 +1919,11 @@
       </c>
     </row>
     <row r="22" spans="2:9" hidden="1">
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>2022</v>
       </c>
-      <c r="C22" s="23">
-        <v>11</v>
+      <c r="C22" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1915,11 +1946,11 @@
       </c>
     </row>
     <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>2022</v>
       </c>
-      <c r="C23" s="25">
-        <v>10</v>
+      <c r="C23" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="D23" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1942,11 +1973,11 @@
       </c>
     </row>
     <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>2022</v>
       </c>
-      <c r="C24" s="23">
-        <v>9</v>
+      <c r="C24" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D24" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1969,11 +2000,11 @@
       </c>
     </row>
     <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>2022</v>
       </c>
-      <c r="C25" s="25">
-        <v>8</v>
+      <c r="C25" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="D25" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1996,11 +2027,11 @@
       </c>
     </row>
     <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>2022</v>
       </c>
-      <c r="C26" s="23">
-        <v>7</v>
+      <c r="C26" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="D26" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2023,11 +2054,11 @@
       </c>
     </row>
     <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>2022</v>
       </c>
-      <c r="C27" s="25">
-        <v>6</v>
+      <c r="C27" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="D27" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2050,11 +2081,11 @@
       </c>
     </row>
     <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>2022</v>
       </c>
-      <c r="C28" s="23">
-        <v>5</v>
+      <c r="C28" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D28" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2077,11 +2108,11 @@
       </c>
     </row>
     <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>2022</v>
       </c>
-      <c r="C29" s="25">
-        <v>4</v>
+      <c r="C29" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="D29" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2104,11 +2135,11 @@
       </c>
     </row>
     <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>2022</v>
       </c>
-      <c r="C30" s="23">
-        <v>3</v>
+      <c r="C30" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2131,11 +2162,11 @@
       </c>
     </row>
     <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <v>2022</v>
       </c>
-      <c r="C31" s="25">
-        <v>2</v>
+      <c r="C31" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D31" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2158,11 +2189,11 @@
       </c>
     </row>
     <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>2022</v>
       </c>
-      <c r="C32" s="27">
-        <v>1</v>
+      <c r="C32" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D32" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2185,11 +2216,11 @@
       </c>
     </row>
     <row r="33" spans="2:9" hidden="1">
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <v>2021</v>
       </c>
-      <c r="C33" s="29">
-        <v>12</v>
+      <c r="C33" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D33" s="6">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2212,11 +2243,11 @@
       </c>
     </row>
     <row r="34" spans="2:9" hidden="1">
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>2021</v>
       </c>
-      <c r="C34" s="23">
-        <v>11</v>
+      <c r="C34" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2239,11 +2270,11 @@
       </c>
     </row>
     <row r="35" spans="2:9" hidden="1">
-      <c r="B35" s="24">
+      <c r="B35" s="23">
         <v>2021</v>
       </c>
-      <c r="C35" s="25">
-        <v>10</v>
+      <c r="C35" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="D35" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2266,11 +2297,11 @@
       </c>
     </row>
     <row r="36" spans="2:9" hidden="1">
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>2021</v>
       </c>
-      <c r="C36" s="23">
-        <v>9</v>
+      <c r="C36" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D36" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2293,11 +2324,11 @@
       </c>
     </row>
     <row r="37" spans="2:9" hidden="1">
-      <c r="B37" s="24">
+      <c r="B37" s="23">
         <v>2021</v>
       </c>
-      <c r="C37" s="25">
-        <v>8</v>
+      <c r="C37" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="D37" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2320,11 +2351,11 @@
       </c>
     </row>
     <row r="38" spans="2:9" hidden="1">
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <v>2021</v>
       </c>
-      <c r="C38" s="23">
-        <v>7</v>
+      <c r="C38" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="D38" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2347,11 +2378,11 @@
       </c>
     </row>
     <row r="39" spans="2:9" hidden="1">
-      <c r="B39" s="24">
+      <c r="B39" s="23">
         <v>2021</v>
       </c>
-      <c r="C39" s="25">
-        <v>6</v>
+      <c r="C39" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="D39" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2374,11 +2405,11 @@
       </c>
     </row>
     <row r="40" spans="2:9" hidden="1">
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <v>2021</v>
       </c>
-      <c r="C40" s="23">
-        <v>5</v>
+      <c r="C40" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D40" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2401,11 +2432,11 @@
       </c>
     </row>
     <row r="41" spans="2:9" hidden="1">
-      <c r="B41" s="24">
+      <c r="B41" s="23">
         <v>2021</v>
       </c>
-      <c r="C41" s="25">
-        <v>4</v>
+      <c r="C41" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="D41" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2428,11 +2459,11 @@
       </c>
     </row>
     <row r="42" spans="2:9" hidden="1">
-      <c r="B42" s="22">
+      <c r="B42" s="21">
         <v>2021</v>
       </c>
-      <c r="C42" s="23">
-        <v>3</v>
+      <c r="C42" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="D42" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2455,11 +2486,11 @@
       </c>
     </row>
     <row r="43" spans="2:9" hidden="1">
-      <c r="B43" s="24">
+      <c r="B43" s="23">
         <v>2021</v>
       </c>
-      <c r="C43" s="25">
-        <v>2</v>
+      <c r="C43" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D43" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2482,11 +2513,11 @@
       </c>
     </row>
     <row r="44" spans="2:9" hidden="1">
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>2021</v>
       </c>
-      <c r="C44" s="27">
-        <v>1</v>
+      <c r="C44" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D44" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2509,11 +2540,11 @@
       </c>
     </row>
     <row r="45" spans="2:9" hidden="1">
-      <c r="B45" s="28">
+      <c r="B45" s="27">
         <v>2020</v>
       </c>
-      <c r="C45" s="29">
-        <v>12</v>
+      <c r="C45" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="D45" s="6">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2536,11 +2567,11 @@
       </c>
     </row>
     <row r="46" spans="2:9" hidden="1">
-      <c r="B46" s="22">
+      <c r="B46" s="21">
         <v>2020</v>
       </c>
-      <c r="C46" s="23">
-        <v>11</v>
+      <c r="C46" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="D46" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2563,11 +2594,11 @@
       </c>
     </row>
     <row r="47" spans="2:9" hidden="1">
-      <c r="B47" s="24">
+      <c r="B47" s="23">
         <v>2020</v>
       </c>
-      <c r="C47" s="25">
-        <v>10</v>
+      <c r="C47" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="D47" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2590,11 +2621,11 @@
       </c>
     </row>
     <row r="48" spans="2:9" hidden="1">
-      <c r="B48" s="22">
+      <c r="B48" s="21">
         <v>2020</v>
       </c>
-      <c r="C48" s="23">
-        <v>9</v>
+      <c r="C48" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D48" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2617,11 +2648,11 @@
       </c>
     </row>
     <row r="49" spans="2:9" hidden="1">
-      <c r="B49" s="24">
+      <c r="B49" s="23">
         <v>2020</v>
       </c>
-      <c r="C49" s="25">
-        <v>8</v>
+      <c r="C49" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="D49" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2644,11 +2675,11 @@
       </c>
     </row>
     <row r="50" spans="2:9" hidden="1">
-      <c r="B50" s="22">
+      <c r="B50" s="21">
         <v>2020</v>
       </c>
-      <c r="C50" s="23">
-        <v>7</v>
+      <c r="C50" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="D50" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2671,11 +2702,11 @@
       </c>
     </row>
     <row r="51" spans="2:9" hidden="1">
-      <c r="B51" s="24">
+      <c r="B51" s="23">
         <v>2020</v>
       </c>
-      <c r="C51" s="25">
-        <v>6</v>
+      <c r="C51" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="D51" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2698,11 +2729,11 @@
       </c>
     </row>
     <row r="52" spans="2:9" hidden="1">
-      <c r="B52" s="22">
+      <c r="B52" s="21">
         <v>2020</v>
       </c>
-      <c r="C52" s="23">
-        <v>5</v>
+      <c r="C52" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D52" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2725,11 +2756,11 @@
       </c>
     </row>
     <row r="53" spans="2:9" hidden="1">
-      <c r="B53" s="24">
+      <c r="B53" s="23">
         <v>2020</v>
       </c>
-      <c r="C53" s="25">
-        <v>4</v>
+      <c r="C53" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2752,11 +2783,11 @@
       </c>
     </row>
     <row r="54" spans="2:9" hidden="1">
-      <c r="B54" s="22">
+      <c r="B54" s="21">
         <v>2020</v>
       </c>
-      <c r="C54" s="23">
-        <v>3</v>
+      <c r="C54" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="D54" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2779,11 +2810,11 @@
       </c>
     </row>
     <row r="55" spans="2:9" hidden="1">
-      <c r="B55" s="24">
+      <c r="B55" s="23">
         <v>2020</v>
       </c>
-      <c r="C55" s="25">
-        <v>2</v>
+      <c r="C55" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D55" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2806,11 +2837,11 @@
       </c>
     </row>
     <row r="56" spans="2:9" hidden="1">
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <v>2020</v>
       </c>
-      <c r="C56" s="27">
-        <v>1</v>
+      <c r="C56" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D56" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2833,11 +2864,11 @@
       </c>
     </row>
     <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="25">
+      <c r="B57" s="24">
         <v>2019</v>
       </c>
-      <c r="C57" s="25">
-        <v>12</v>
+      <c r="C57" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="D57" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2860,26 +2891,26 @@
       </c>
     </row>
     <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="22">
+      <c r="B58" s="21">
         <v>2019</v>
       </c>
-      <c r="C58" s="36">
-        <v>11</v>
-      </c>
-      <c r="D58" s="37">
+      <c r="C58" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
         <v>95191229</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58" s="9">
         <v>76247207</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="9">
         <v>3567519</v>
       </c>
-      <c r="G58" s="38">
+      <c r="G58" s="9">
         <v>15335695</v>
       </c>
-      <c r="H58" s="38">
+      <c r="H58" s="9">
         <v>40808</v>
       </c>
       <c r="I58" s="13">
@@ -2887,11 +2918,11 @@
       </c>
     </row>
     <row r="59" spans="2:9" hidden="1">
-      <c r="B59" s="24">
+      <c r="B59" s="23">
         <v>2019</v>
       </c>
-      <c r="C59" s="25">
-        <v>10</v>
+      <c r="C59" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="D59" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2914,11 +2945,11 @@
       </c>
     </row>
     <row r="60" spans="2:9" hidden="1">
-      <c r="B60" s="22">
+      <c r="B60" s="21">
         <v>2019</v>
       </c>
-      <c r="C60" s="23">
-        <v>9</v>
+      <c r="C60" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D60" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2941,11 +2972,11 @@
       </c>
     </row>
     <row r="61" spans="2:9" hidden="1">
-      <c r="B61" s="24">
+      <c r="B61" s="23">
         <v>2019</v>
       </c>
-      <c r="C61" s="25">
-        <v>8</v>
+      <c r="C61" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="D61" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2968,11 +2999,11 @@
       </c>
     </row>
     <row r="62" spans="2:9" hidden="1">
-      <c r="B62" s="22">
+      <c r="B62" s="21">
         <v>2019</v>
       </c>
-      <c r="C62" s="23">
-        <v>7</v>
+      <c r="C62" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="D62" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2995,11 +3026,11 @@
       </c>
     </row>
     <row r="63" spans="2:9" hidden="1">
-      <c r="B63" s="24">
+      <c r="B63" s="23">
         <v>2019</v>
       </c>
-      <c r="C63" s="25">
-        <v>6</v>
+      <c r="C63" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="D63" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3022,11 +3053,11 @@
       </c>
     </row>
     <row r="64" spans="2:9" hidden="1">
-      <c r="B64" s="22">
+      <c r="B64" s="21">
         <v>2019</v>
       </c>
-      <c r="C64" s="23">
-        <v>5</v>
+      <c r="C64" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D64" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3049,11 +3080,11 @@
       </c>
     </row>
     <row r="65" spans="2:9" hidden="1">
-      <c r="B65" s="24">
+      <c r="B65" s="23">
         <v>2019</v>
       </c>
-      <c r="C65" s="25">
-        <v>4</v>
+      <c r="C65" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="D65" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3076,11 +3107,11 @@
       </c>
     </row>
     <row r="66" spans="2:9" hidden="1">
-      <c r="B66" s="22">
+      <c r="B66" s="21">
         <v>2019</v>
       </c>
-      <c r="C66" s="23">
-        <v>3</v>
+      <c r="C66" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="D66" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3103,11 +3134,11 @@
       </c>
     </row>
     <row r="67" spans="2:9" hidden="1">
-      <c r="B67" s="24">
+      <c r="B67" s="23">
         <v>2019</v>
       </c>
-      <c r="C67" s="25">
-        <v>2</v>
+      <c r="C67" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D67" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3130,11 +3161,11 @@
       </c>
     </row>
     <row r="68" spans="2:9" hidden="1">
-      <c r="B68" s="26">
+      <c r="B68" s="25">
         <v>2019</v>
       </c>
-      <c r="C68" s="27">
-        <v>1</v>
+      <c r="C68" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="D68" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3157,11 +3188,11 @@
       </c>
     </row>
     <row r="69" spans="2:9" hidden="1">
-      <c r="B69" s="24">
+      <c r="B69" s="23">
         <v>2018</v>
       </c>
-      <c r="C69" s="25">
-        <v>12</v>
+      <c r="C69" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="D69" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3184,38 +3215,38 @@
       </c>
     </row>
     <row r="70" spans="2:9" hidden="1">
-      <c r="B70" s="36">
+      <c r="B70" s="22">
         <v>2018</v>
       </c>
-      <c r="C70" s="36">
-        <v>11</v>
-      </c>
-      <c r="D70" s="37">
+      <c r="C70" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
         <v>85477955</v>
       </c>
-      <c r="E70" s="38">
+      <c r="E70" s="9">
         <v>65494259</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="9">
         <v>3449870</v>
       </c>
-      <c r="G70" s="38">
+      <c r="G70" s="9">
         <v>16510690</v>
       </c>
-      <c r="H70" s="38">
+      <c r="H70" s="9">
         <v>23136</v>
       </c>
-      <c r="I70" s="38">
+      <c r="I70" s="9">
         <v>72</v>
       </c>
     </row>
     <row r="71" spans="2:9" hidden="1">
-      <c r="B71" s="25">
+      <c r="B71" s="24">
         <v>2018</v>
       </c>
-      <c r="C71" s="25">
-        <v>10</v>
+      <c r="C71" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="D71" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3238,11 +3269,11 @@
       </c>
     </row>
     <row r="72" spans="2:9" hidden="1">
-      <c r="B72" s="23">
+      <c r="B72" s="22">
         <v>2018</v>
       </c>
-      <c r="C72" s="23">
-        <v>9</v>
+      <c r="C72" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D72" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3265,11 +3296,11 @@
       </c>
     </row>
     <row r="73" spans="2:9" hidden="1">
-      <c r="B73" s="25">
+      <c r="B73" s="24">
         <v>2018</v>
       </c>
-      <c r="C73" s="25">
-        <v>8</v>
+      <c r="C73" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="D73" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3292,11 +3323,11 @@
       </c>
     </row>
     <row r="74" spans="2:9" hidden="1">
-      <c r="B74" s="23">
+      <c r="B74" s="22">
         <v>2018</v>
       </c>
-      <c r="C74" s="23">
-        <v>7</v>
+      <c r="C74" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="D74" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3319,11 +3350,11 @@
       </c>
     </row>
     <row r="75" spans="2:9" hidden="1">
-      <c r="B75" s="25">
+      <c r="B75" s="24">
         <v>2018</v>
       </c>
-      <c r="C75" s="25">
-        <v>6</v>
+      <c r="C75" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="D75" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3346,11 +3377,11 @@
       </c>
     </row>
     <row r="76" spans="2:9" hidden="1">
-      <c r="B76" s="23">
+      <c r="B76" s="22">
         <v>2018</v>
       </c>
-      <c r="C76" s="23">
-        <v>5</v>
+      <c r="C76" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D76" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3373,11 +3404,11 @@
       </c>
     </row>
     <row r="77" spans="2:9" hidden="1">
-      <c r="B77" s="25">
+      <c r="B77" s="24">
         <v>2018</v>
       </c>
-      <c r="C77" s="25">
-        <v>4</v>
+      <c r="C77" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="D77" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3400,11 +3431,11 @@
       </c>
     </row>
     <row r="78" spans="2:9" hidden="1">
-      <c r="B78" s="23">
+      <c r="B78" s="22">
         <v>2018</v>
       </c>
-      <c r="C78" s="23">
-        <v>3</v>
+      <c r="C78" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="D78" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3427,11 +3458,11 @@
       </c>
     </row>
     <row r="79" spans="2:9" hidden="1">
-      <c r="B79" s="25">
+      <c r="B79" s="24">
         <v>2018</v>
       </c>
-      <c r="C79" s="25">
-        <v>2</v>
+      <c r="C79" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="D79" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3454,11 +3485,11 @@
       </c>
     </row>
     <row r="80" spans="2:9" hidden="1">
-      <c r="B80" s="23">
+      <c r="B80" s="22">
         <v>2018</v>
       </c>
-      <c r="C80" s="23">
-        <v>1</v>
+      <c r="C80" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="D80" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>

--- a/Acc_moviles_N.xlsx
+++ b/Acc_moviles_N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F942F6-3EED-4449-8A9C-92EE1239138E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B3DB7-F0F7-41C2-9E62-B0C77AAC8E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_42.3" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
   <si>
     <t>Total</t>
   </si>
@@ -65,19 +65,10 @@
     <t>Líneas del servicio móvil (p/c 100 habitantes)</t>
   </si>
   <si>
-    <t>Accesos a internet en el servicio móvil de telefonía</t>
-  </si>
-  <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Mes</t>
   </si>
   <si>
     <t>Año</t>
-  </si>
-  <si>
-    <t>ND</t>
   </si>
   <si>
     <t>ND No disponible.</t>
@@ -118,6 +109,12 @@
   <si>
     <t>Abr.</t>
   </si>
+  <si>
+    <t>Actualización: Octubre 2024.</t>
+  </si>
+  <si>
+    <t>Servicio móvil de acceso a internet</t>
+  </si>
 </sst>
 </file>
 
@@ -141,40 +138,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -182,13 +179,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,7 +879,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -953,6 +950,12 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,11 +965,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -1075,7 +1075,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1094,7 +1094,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="22" formatCode="mmm\-yy"/>
@@ -1137,7 +1137,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -1202,7 +1202,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1210,28 +1210,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -1240,14 +1240,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -1424,26 +1424,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18.75">
+    <row r="2" spans="2:9" ht="15.75">
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1454,21 +1454,21 @@
     <row r="4" spans="2:9">
       <c r="B4" s="5"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="2:9" ht="54">
-      <c r="B5" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>10</v>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="2:9" ht="45">
+      <c r="B5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>8</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>0</v>
@@ -1494,22 +1494,23 @@
         <v>2024</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="8">
+        <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
         <v>128814860</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>12</v>
+      <c r="E6" s="29">
+        <v>90212539</v>
+      </c>
+      <c r="F6" s="29">
+        <v>3905762</v>
+      </c>
+      <c r="G6" s="29">
+        <v>15634966</v>
+      </c>
+      <c r="H6" s="29">
+        <v>19061593</v>
       </c>
       <c r="I6" s="13">
         <v>98</v>
@@ -1520,22 +1521,23 @@
         <v>2024</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="10">
+        <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
         <v>127589605</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>12</v>
+      <c r="E7" s="30">
+        <v>89761978</v>
+      </c>
+      <c r="F7" s="30">
+        <v>3809843</v>
+      </c>
+      <c r="G7" s="30">
+        <v>15526711</v>
+      </c>
+      <c r="H7" s="30">
+        <v>18491073</v>
       </c>
       <c r="I7" s="14">
         <v>97</v>
@@ -1546,22 +1548,23 @@
         <v>2024</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="15">
+        <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
         <v>127430233</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>12</v>
+      <c r="E8" s="31">
+        <v>90049479</v>
+      </c>
+      <c r="F8" s="31">
+        <v>3818019</v>
+      </c>
+      <c r="G8" s="31">
+        <v>15499815</v>
+      </c>
+      <c r="H8" s="31">
+        <v>18062920</v>
       </c>
       <c r="I8" s="17">
         <v>97</v>
@@ -1572,7 +1575,7 @@
         <v>2023</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1599,7 +1602,7 @@
         <v>2023</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1626,7 +1629,7 @@
         <v>2023</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1653,7 +1656,7 @@
         <v>2023</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1680,7 +1683,7 @@
         <v>2023</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1707,7 +1710,7 @@
         <v>2023</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1734,7 +1737,7 @@
         <v>2023</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1761,7 +1764,7 @@
         <v>2023</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1788,7 +1791,7 @@
         <v>2023</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1815,7 +1818,7 @@
         <v>2023</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1842,7 +1845,7 @@
         <v>2023</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1869,7 +1872,7 @@
         <v>2023</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1896,7 +1899,7 @@
         <v>2022</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21" s="6">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1923,7 +1926,7 @@
         <v>2022</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1950,7 +1953,7 @@
         <v>2022</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -1977,7 +1980,7 @@
         <v>2022</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D24" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2004,7 +2007,7 @@
         <v>2022</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2031,7 +2034,7 @@
         <v>2022</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2058,7 +2061,7 @@
         <v>2022</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D27" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2085,7 +2088,7 @@
         <v>2022</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D28" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2112,7 +2115,7 @@
         <v>2022</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2139,7 +2142,7 @@
         <v>2022</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D30" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2166,7 +2169,7 @@
         <v>2022</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2193,7 +2196,7 @@
         <v>2022</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D32" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2220,7 +2223,7 @@
         <v>2021</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D33" s="6">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2247,7 +2250,7 @@
         <v>2021</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D34" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2274,7 +2277,7 @@
         <v>2021</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D35" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2301,7 +2304,7 @@
         <v>2021</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D36" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2328,7 +2331,7 @@
         <v>2021</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D37" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2355,7 +2358,7 @@
         <v>2021</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D38" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2382,7 +2385,7 @@
         <v>2021</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D39" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2409,7 +2412,7 @@
         <v>2021</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D40" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2436,7 +2439,7 @@
         <v>2021</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D41" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2463,7 +2466,7 @@
         <v>2021</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D42" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2490,7 +2493,7 @@
         <v>2021</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2517,7 +2520,7 @@
         <v>2021</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D44" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2544,7 +2547,7 @@
         <v>2020</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D45" s="6">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2571,7 +2574,7 @@
         <v>2020</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D46" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2598,7 +2601,7 @@
         <v>2020</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D47" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2625,7 +2628,7 @@
         <v>2020</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D48" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2652,7 +2655,7 @@
         <v>2020</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D49" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2679,7 +2682,7 @@
         <v>2020</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D50" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2706,7 +2709,7 @@
         <v>2020</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D51" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2733,7 +2736,7 @@
         <v>2020</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D52" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2760,7 +2763,7 @@
         <v>2020</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D53" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2787,7 +2790,7 @@
         <v>2020</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D54" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2814,7 +2817,7 @@
         <v>2020</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D55" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2841,7 +2844,7 @@
         <v>2020</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D56" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2868,7 +2871,7 @@
         <v>2019</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D57" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2895,7 +2898,7 @@
         <v>2019</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D58" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2922,7 +2925,7 @@
         <v>2019</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D59" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2949,7 +2952,7 @@
         <v>2019</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D60" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -2976,7 +2979,7 @@
         <v>2019</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D61" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3003,7 +3006,7 @@
         <v>2019</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D62" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3030,7 +3033,7 @@
         <v>2019</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D63" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3057,7 +3060,7 @@
         <v>2019</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D64" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3084,7 +3087,7 @@
         <v>2019</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D65" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3111,7 +3114,7 @@
         <v>2019</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D66" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3138,7 +3141,7 @@
         <v>2019</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D67" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3165,7 +3168,7 @@
         <v>2019</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D68" s="15">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3192,7 +3195,7 @@
         <v>2018</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D69" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3219,7 +3222,7 @@
         <v>2018</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D70" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3246,7 +3249,7 @@
         <v>2018</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D71" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3273,7 +3276,7 @@
         <v>2018</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D72" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3300,7 +3303,7 @@
         <v>2018</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D73" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3327,7 +3330,7 @@
         <v>2018</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D74" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3354,7 +3357,7 @@
         <v>2018</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D75" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3381,7 +3384,7 @@
         <v>2018</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D76" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3408,7 +3411,7 @@
         <v>2018</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D77" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3435,7 +3438,7 @@
         <v>2018</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D78" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3462,7 +3465,7 @@
         <v>2018</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D79" s="10">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3489,7 +3492,7 @@
         <v>2018</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D80" s="8">
         <f>SUM(Tabla3[[#This Row],[Prepago]:[No especificado]])</f>
@@ -3513,12 +3516,12 @@
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="2:9">
@@ -3529,13 +3532,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D6:D8" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
